--- a/medicine/Enfance/Gerda_Muller/Gerda_Muller.xlsx
+++ b/medicine/Enfance/Gerda_Muller/Gerda_Muller.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gerda Muller (née le 21 février 1926 à Naarden, aux Pays-Bas) est illustratrice et auteure de livres pour enfants d'origine néerlandaise. Certains albums sont signés du pseudonyme Gerda. 
 Elle est connue pour ses illustrations pour la collection du père Castor de Flammarion et notamment Marlaguette et Perlette goutte d'eau de Marie Colmont, Les Bons amis, Trois petits cochons et La Chèvre et les biquets de Paul François ou encore Boucle d'or de Rose Celli.
 Dans les années 1970, elle illustre les méthodes de lecture Lisons, Lisette pour les éditions Belin et dans les années 1980, elle illustre la série des Turlutins d'Anne-Marie Chapouton.
 Gerda Muller écrit aussi elle même certains ouvrages comme La Fête des fruits, Ça pousse comment ? ou Mon Arbre publiés à L'École des loisirs.
-Elle a illustré 130 livres[1].
+Elle a illustré 130 livres.
 Elle a obtenu la mention Prix critique en herbe de la Foire du livre de jeunesse de Bologne en 1976 pour Nours et Pluche, les petits koalas réalisé avec Marie Tenaille.
 </t>
         </is>
@@ -516,12 +528,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gerda Muller naît le 21 février 1926. Elle grandit dans la banlieue d'Amsterdam. Son père décède en 1937[2].
-Elle a suit des cours à l'École des arts décoratifs d'Amsterdam et découvre le travail de Rojan pour la collection du Père Castor et notamment Panache l’écureuil, Plouf canard sauvage et Scaf le phoque[2].
-En 1948, Gerda Muller se rend à Paris pour la première fois et travaille pendant 6 mois à l'atelier de l'affichiste Paul Colin[2].
-Elle travaille ensuite pour l'Atelier du Père Castor et illustre en 1952 La bonne journée, Le jardin des jeux et Marlaguette. Entre 1951 et 1967, elle illustre 43 livres pour les ateliers du Père Castor[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gerda Muller naît le 21 février 1926. Elle grandit dans la banlieue d'Amsterdam. Son père décède en 1937.
+Elle a suit des cours à l'École des arts décoratifs d'Amsterdam et découvre le travail de Rojan pour la collection du Père Castor et notamment Panache l’écureuil, Plouf canard sauvage et Scaf le phoque.
+En 1948, Gerda Muller se rend à Paris pour la première fois et travaille pendant 6 mois à l'atelier de l'affichiste Paul Colin.
+Elle travaille ensuite pour l'Atelier du Père Castor et illustre en 1952 La bonne journée, Le jardin des jeux et Marlaguette. Entre 1951 et 1967, elle illustre 43 livres pour les ateliers du Père Castor.
 </t>
         </is>
       </c>
@@ -550,10 +564,12 @@
           <t>Style</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les personnages de Gerda Muller sont toujours en mouvement et jamais figés[3].
-Dans son dessin de la nature, et notamment pour La Fête des fruits, Ça pousse comment ? et Mon arbre, elle revendique le naturalisme[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les personnages de Gerda Muller sont toujours en mouvement et jamais figés.
+Dans son dessin de la nature, et notamment pour La Fête des fruits, Ça pousse comment ? et Mon arbre, elle revendique le naturalisme.
 </t>
         </is>
       </c>
@@ -582,9 +598,11 @@
           <t>Technique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gerda Muller utilise une grande variété de techniques selon les albums. Elle utilise la gouache pour Marlaguette ou Les quatre musiciens de Brême ou la plume et l'aquarelle pour la série des Turlutins[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gerda Muller utilise une grande variété de techniques selon les albums. Elle utilise la gouache pour Marlaguette ou Les quatre musiciens de Brême ou la plume et l'aquarelle pour la série des Turlutins.
 </t>
         </is>
       </c>
@@ -613,7 +631,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Albums du Père Castor, Flammarion
 1952 : La bonne journée
@@ -650,7 +670,7 @@
 1971 : Ti-ti-ping, la petite mésange
 1974 : Brimborion, le petit poney, texte de Résie Pouyanne
 1974:  Ficelle le petit chat,  texte de Résie Pouyanne
-1976 : Patiou chien de berger, texte de Résie Pouyanne [5]
+1976 : Patiou chien de berger, texte de Résie Pouyanne 
 1978 : Justine, la chevrette, texte de Résie Pouyanne
 1979 : Chipeur, le raton laveur, texte de Marie Tenaille
 1980 : Les aventures de Tom Pouce, texte d'Hélène Fatou
@@ -712,9 +732,11 @@
           <t>Expositions</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2012 : Musée de l'illustration jeunesse de Moulins[6]</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2012 : Musée de l'illustration jeunesse de Moulins</t>
         </is>
       </c>
     </row>
@@ -742,10 +764,12 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1976 : Prix critique en herbe de la Foire du livre de jeunesse de Bologne pour Nours et Pluche, les petits koalas réalisé avec Marie Tenaille[7]
-1994 : (international) « Honour List »[8] de l' IBBY pour Mon arbre</t>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1976 : Prix critique en herbe de la Foire du livre de jeunesse de Bologne pour Nours et Pluche, les petits koalas réalisé avec Marie Tenaille
+1994 : (international) « Honour List » de l' IBBY pour Mon arbre</t>
         </is>
       </c>
     </row>
